--- a/branches/merging/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-RegulatedAuthorization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,9 +593,6 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsRegulatedAuthorization</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -697,7 +694,10 @@
     <t>Overall type of this authorization, for example drug marketing approval, orphan drug designation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/RegulatedAuthorizationTypeIdSystems</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/regulatedAuthorizationType</t>
   </si>
   <si>
     <t>RegulatedAuthorization.description</t>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>The legal or regulatory framework against which this authorization is granted, or other reasons for it.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
@@ -1365,7 +1362,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3116,29 +3113,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3159,15 +3158,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3190,16 +3189,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3213,52 +3212,52 @@
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>96</v>
@@ -3270,15 +3269,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3301,13 +3300,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3358,7 +3357,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3379,15 +3378,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3410,16 +3409,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3469,7 +3468,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3490,15 +3489,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3521,13 +3520,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3578,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3596,7 +3595,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3604,10 +3603,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3633,10 +3632,10 @@
         <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3663,7 +3662,7 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
@@ -3685,7 +3684,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4169,7 +4168,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>241</v>
@@ -4967,13 +4966,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5009,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5017,10 +5016,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5043,13 +5042,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5100,7 +5099,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5118,7 +5117,7 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5126,10 +5125,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5152,13 +5151,13 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5209,7 +5208,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5227,7 +5226,7 @@
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5235,10 +5234,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5261,13 +5260,13 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5318,7 +5317,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5344,10 +5343,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5370,13 +5369,13 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5427,7 +5426,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5445,7 +5444,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5453,10 +5452,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5479,7 +5478,7 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>150</v>
@@ -5562,10 +5561,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5673,14 +5672,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5702,10 +5701,10 @@
         <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>135</v>
@@ -5760,7 +5759,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5786,10 +5785,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5815,10 +5814,10 @@
         <v>144</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5869,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5887,7 +5886,7 @@
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -5895,10 +5894,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6004,10 +6003,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6115,10 +6114,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6228,10 +6227,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6341,10 +6340,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6408,7 +6407,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6426,7 +6425,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6447,15 +6446,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6478,16 +6477,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6501,52 +6500,52 @@
         <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -6558,15 +6557,15 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6589,13 +6588,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6646,7 +6645,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6667,15 +6666,15 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6698,16 +6697,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6757,7 +6756,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6778,15 +6777,15 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6812,10 +6811,10 @@
         <v>171</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6846,7 +6845,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6864,7 +6863,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6882,7 +6881,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -6890,10 +6889,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6919,10 +6918,10 @@
         <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6953,7 +6952,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -6971,7 +6970,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6997,10 +6996,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7023,13 +7022,13 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7080,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7098,7 +7097,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7106,10 +7105,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7135,10 +7134,10 @@
         <v>77</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7189,7 +7188,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7207,7 +7206,7 @@
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
